--- a/templates/report_payments_margin.xlsx
+++ b/templates/report_payments_margin.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>№ п/п</t>
   </si>
@@ -160,9 +160,6 @@
   </si>
   <si>
     <t>${table:t1.agr_number}</t>
-  </si>
-  <si>
-    <t>powered by ccs.msk.ru</t>
   </si>
   <si>
     <t>${table:t1.schedule_margin}</t>
@@ -726,7 +723,9 @@
   </sheetPr>
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -764,7 +763,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -809,7 +808,7 @@
         <v>16</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T1" s="6" t="s">
         <v>17</v>
@@ -835,7 +834,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>22</v>
@@ -880,10 +879,10 @@
         <v>36</v>
       </c>
       <c r="S2" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T2" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U2" s="26" t="s">
         <v>37</v>
@@ -954,9 +953,7 @@
       <c r="Q8" s="12"/>
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
-      <c r="W8" s="17" t="s">
-        <v>48</v>
-      </c>
+      <c r="W8" s="17"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="M9" s="14"/>

--- a/templates/report_payments_margin.xlsx
+++ b/templates/report_payments_margin.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="405" windowWidth="27555" windowHeight="12300"/>
@@ -180,12 +180,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,10 +416,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 5" xfId="3"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Процентный" xfId="2" builtinId="5"/>
+    <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -432,9 +432,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -472,7 +472,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -506,7 +506,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -541,10 +540,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -717,17 +715,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -752,7 +750,7 @@
     <col min="23" max="23" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="56.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -823,7 +821,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="33.75">
       <c r="A2" s="19" t="s">
         <v>21</v>
       </c>
@@ -894,7 +892,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23">
       <c r="A3" s="8"/>
       <c r="F3" s="11" t="s">
         <v>40</v>
@@ -921,33 +919,33 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23">
       <c r="M4" s="14"/>
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23">
       <c r="G5" s="14"/>
       <c r="M5" s="14"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
       <c r="S5" s="29"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23">
       <c r="G6" s="10"/>
       <c r="M6" s="14"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23">
       <c r="M7" s="14"/>
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23">
       <c r="J8" s="15"/>
       <c r="M8" s="14"/>
       <c r="Q8" s="12"/>
@@ -955,13 +953,13 @@
       <c r="S8" s="12"/>
       <c r="W8" s="17"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23">
       <c r="M9" s="14"/>
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23">
       <c r="C10" s="16"/>
       <c r="M10" s="14"/>
       <c r="Q10" s="12"/>
@@ -975,24 +973,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
